--- a/Investment Case Study/Investments.xlsx
+++ b/Investment Case Study/Investments.xlsx
@@ -1,15 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="18229"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\chand\Desktop\UpGrad\Investment Case Group Project\1\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Chiranjeev\Documents\Investment case study Cohort-3\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="19200" windowHeight="6950" activeTab="3"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7080" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="Table -1.1" sheetId="2" r:id="rId1"/>
@@ -33,7 +33,16 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="66" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="40">
+  <si>
+    <t>C1</t>
+  </si>
+  <si>
+    <t>C2</t>
+  </si>
+  <si>
+    <t>C3</t>
+  </si>
   <si>
     <t>Sl.no</t>
   </si>
@@ -348,72 +357,12 @@
   </si>
   <si>
     <t>Sector-wise Investment Analysis</t>
-  </si>
-  <si>
-    <t>permalink</t>
-  </si>
-  <si>
-    <t>N</t>
-  </si>
-  <si>
-    <t>venture</t>
-  </si>
-  <si>
-    <t>USA</t>
-  </si>
-  <si>
-    <t>GBR</t>
-  </si>
-  <si>
-    <t>IND</t>
-  </si>
-  <si>
-    <t>C1(USA)</t>
-  </si>
-  <si>
-    <t>C2(GBR)</t>
-  </si>
-  <si>
-    <t>C3(IND)</t>
-  </si>
-  <si>
-    <t>Others</t>
-  </si>
-  <si>
-    <t>Edmodo</t>
-  </si>
-  <si>
-    <t>Notonthehighstreet</t>
-  </si>
-  <si>
-    <t>Pepperfry.com</t>
-  </si>
-  <si>
-    <t>Intacct</t>
-  </si>
-  <si>
-    <t>myThings</t>
-  </si>
-  <si>
-    <t>Komli Media</t>
-  </si>
-  <si>
-    <t>Social,Finance,Analytics ,Advertising</t>
-  </si>
-  <si>
-    <t>Cleantech / Semiconductors</t>
-  </si>
-  <si>
-    <t>News, Search and Messaging</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <numFmts count="1">
-    <numFmt numFmtId="164" formatCode="0.0"/>
-  </numFmts>
   <fonts count="9" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -624,7 +573,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="38">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -683,50 +632,46 @@
     <xf numFmtId="0" fontId="0" fillId="5" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="164" fontId="0" fillId="5" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1046,105 +991,95 @@
   <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="8.81640625" style="3"/>
-    <col min="2" max="2" width="63.7265625" customWidth="1"/>
-    <col min="3" max="3" width="22.81640625" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="3"/>
+    <col min="2" max="2" width="63.7109375" customWidth="1"/>
+    <col min="3" max="3" width="22.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
-      <c r="A1" s="27" t="s">
-        <v>19</v>
-      </c>
-      <c r="B1" s="27"/>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="B1" s="22"/>
       <c r="C1" s="15"/>
     </row>
-    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
+    <row r="2" spans="1:3" ht="9.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="27"/>
+      <c r="B2" s="27"/>
       <c r="C2" s="15"/>
     </row>
-    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="27" t="s">
-        <v>34</v>
-      </c>
-      <c r="B3" s="27"/>
-      <c r="C3" s="27"/>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" ht="18" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="22" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="22"/>
+      <c r="C3" s="22"/>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" s="8" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="8" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="5">
         <v>1</v>
       </c>
       <c r="B5" s="16" t="s">
-        <v>20</v>
-      </c>
-      <c r="C5" s="17">
-        <v>66368</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>23</v>
+      </c>
+      <c r="C5" s="17"/>
+    </row>
+    <row r="6" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5">
         <v>2</v>
       </c>
       <c r="B6" s="16" t="s">
-        <v>21</v>
-      </c>
-      <c r="C6" s="17">
-        <v>66368</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.35">
+        <v>24</v>
+      </c>
+      <c r="C6" s="17"/>
+    </row>
+    <row r="7" spans="1:3" ht="36" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5">
         <v>3</v>
       </c>
       <c r="B7" s="18" t="s">
-        <v>27</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.35">
+        <v>30</v>
+      </c>
+      <c r="C7" s="17"/>
+    </row>
+    <row r="8" spans="1:3" ht="31.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
         <v>4</v>
       </c>
       <c r="B8" s="18" t="s">
-        <v>28</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>31</v>
+      </c>
+      <c r="C8" s="17"/>
+    </row>
+    <row r="9" spans="1:3" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="5">
         <v>5</v>
       </c>
       <c r="B9" s="18" t="s">
-        <v>29</v>
-      </c>
-      <c r="C9" s="17">
-        <v>114949</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+        <v>32</v>
+      </c>
+      <c r="C9" s="17"/>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B10" s="11"/>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B11" s="11"/>
     </row>
   </sheetData>
@@ -1171,98 +1106,88 @@
   <dimension ref="A1:C9"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
+      <selection activeCell="F6" sqref="F6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="7.26953125" customWidth="1"/>
-    <col min="2" max="2" width="53.81640625" customWidth="1"/>
-    <col min="3" max="3" width="23.81640625" customWidth="1"/>
+    <col min="1" max="1" width="7.28515625" customWidth="1"/>
+    <col min="2" max="2" width="53.85546875" customWidth="1"/>
+    <col min="3" max="3" width="23.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>30</v>
-      </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="29"/>
-      <c r="B2" s="29"/>
-    </row>
-    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>33</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-    </row>
-    <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+    </row>
+    <row r="3" spans="1:3" ht="24.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>36</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" s="2" customFormat="1" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="10" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="10" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="10" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="12">
         <v>1</v>
       </c>
       <c r="B5" s="13" t="s">
-        <v>22</v>
-      </c>
-      <c r="C5" s="12">
-        <v>11748949</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.35">
+        <v>25</v>
+      </c>
+      <c r="C5" s="12"/>
+    </row>
+    <row r="6" spans="1:3" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="12">
         <v>2</v>
       </c>
       <c r="B6" s="13" t="s">
-        <v>23</v>
-      </c>
-      <c r="C6" s="26">
-        <v>958694.5</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+        <v>26</v>
+      </c>
+      <c r="C6" s="12"/>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="12">
         <v>3</v>
       </c>
       <c r="B7" s="13" t="s">
-        <v>24</v>
-      </c>
-      <c r="C7" s="12">
-        <v>719818</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+        <v>27</v>
+      </c>
+      <c r="C7" s="12"/>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="12">
         <v>4</v>
       </c>
       <c r="B8" s="13" t="s">
-        <v>25</v>
-      </c>
-      <c r="C8" s="12">
-        <v>73308593</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.35">
+        <v>28</v>
+      </c>
+      <c r="C8" s="12"/>
+    </row>
+    <row r="9" spans="1:3" ht="59.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="12">
         <v>5</v>
       </c>
       <c r="B9" s="14" t="s">
-        <v>26</v>
-      </c>
-      <c r="C9" s="12" t="s">
-        <v>39</v>
-      </c>
+        <v>29</v>
+      </c>
+      <c r="C9" s="12"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1289,76 +1214,70 @@
   <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
-      <selection activeCell="G10" sqref="G10"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="9.1796875" customWidth="1"/>
-    <col min="2" max="2" width="47.1796875" customWidth="1"/>
-    <col min="3" max="3" width="21.453125" customWidth="1"/>
+    <col min="1" max="1" width="9.140625" customWidth="1"/>
+    <col min="2" max="2" width="47.140625" customWidth="1"/>
+    <col min="3" max="3" width="21.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="29" t="s">
-        <v>32</v>
-      </c>
-      <c r="B1" s="29"/>
-    </row>
-    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="31"/>
-      <c r="B2" s="31"/>
-    </row>
-    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="30" t="s">
+    <row r="1" spans="1:3" s="4" customFormat="1" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="23" t="s">
         <v>35</v>
       </c>
-      <c r="B3" s="30"/>
-      <c r="C3" s="30"/>
-    </row>
-    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
+      <c r="B1" s="23"/>
+    </row>
+    <row r="2" spans="1:3" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+    </row>
+    <row r="3" spans="1:3" ht="23.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="26" t="s">
+        <v>38</v>
+      </c>
+      <c r="B3" s="26"/>
+      <c r="C3" s="26"/>
+    </row>
+    <row r="4" spans="1:3" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B4" s="9" t="s">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="C4" s="9" t="s">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" ht="17" x14ac:dyDescent="0.35">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A5" s="6">
         <v>1</v>
       </c>
       <c r="B5" s="7" t="s">
-        <v>16</v>
-      </c>
-      <c r="C5" s="6" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" ht="17" x14ac:dyDescent="0.35">
+        <v>19</v>
+      </c>
+      <c r="C5" s="6"/>
+    </row>
+    <row r="6" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A6" s="6">
         <v>2</v>
       </c>
       <c r="B6" s="7" t="s">
-        <v>17</v>
-      </c>
-      <c r="C6" s="6" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" ht="17" x14ac:dyDescent="0.35">
+        <v>20</v>
+      </c>
+      <c r="C6" s="6"/>
+    </row>
+    <row r="7" spans="1:3" ht="17.25" x14ac:dyDescent="0.25">
       <c r="A7" s="6">
         <v>3</v>
       </c>
       <c r="B7" s="7" t="s">
-        <v>18</v>
-      </c>
-      <c r="C7" s="6" t="s">
-        <v>42</v>
-      </c>
+        <v>21</v>
+      </c>
+      <c r="C7" s="6"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1383,222 +1302,164 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="E9" sqref="E9"/>
+    <sheetView showGridLines="0" tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.81640625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="4.90625" style="1" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="55" bestFit="1" customWidth="1"/>
-    <col min="3" max="5" width="32.26953125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="8.85546875" style="1"/>
+    <col min="2" max="2" width="56.85546875" customWidth="1"/>
+    <col min="3" max="3" width="17.42578125" customWidth="1"/>
+    <col min="4" max="4" width="14.85546875" customWidth="1"/>
+    <col min="5" max="5" width="17.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="32" t="s">
-        <v>31</v>
-      </c>
-      <c r="B1" s="33"/>
-    </row>
-    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="34"/>
-      <c r="B2" s="35"/>
-    </row>
-    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="36" t="s">
-        <v>36</v>
-      </c>
-      <c r="B3" s="37"/>
-      <c r="C3" s="37"/>
-      <c r="D3" s="37"/>
-      <c r="E3" s="37"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.35">
-      <c r="A4" s="22" t="s">
+    <row r="1" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="29" t="s">
+        <v>34</v>
+      </c>
+      <c r="B1" s="30"/>
+    </row>
+    <row r="2" spans="1:5" s="1" customFormat="1" ht="15" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="31"/>
+      <c r="B2" s="32"/>
+    </row>
+    <row r="3" spans="1:5" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="35" t="s">
+        <v>39</v>
+      </c>
+      <c r="B3" s="25"/>
+      <c r="C3" s="25"/>
+      <c r="D3" s="25"/>
+      <c r="E3" s="25"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" s="24" t="s">
+        <v>3</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="33" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="D4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="23" t="s">
-        <v>43</v>
-      </c>
-      <c r="D4" s="23" t="s">
-        <v>44</v>
-      </c>
-      <c r="E4" s="24" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.35">
+      <c r="E4" s="34" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="19">
         <v>1</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>2</v>
-      </c>
-      <c r="C5" s="17">
-        <v>12150</v>
-      </c>
-      <c r="D5" s="17">
-        <v>628</v>
-      </c>
-      <c r="E5" s="17">
-        <v>330</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.35">
+        <v>5</v>
+      </c>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="19">
         <v>2</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>3</v>
-      </c>
-      <c r="C6" s="25">
-        <v>108531347515</v>
-      </c>
-      <c r="D6" s="17">
-        <v>5436843539</v>
-      </c>
-      <c r="E6" s="17">
-        <v>2976543602</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.35">
+        <v>6</v>
+      </c>
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A7" s="19">
         <v>3</v>
       </c>
       <c r="B7" s="20" t="s">
-        <v>4</v>
-      </c>
-      <c r="C7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="D7" s="17" t="s">
-        <v>46</v>
-      </c>
-      <c r="E7" s="17" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.35">
+        <v>7</v>
+      </c>
+      <c r="C7" s="17"/>
+      <c r="D7" s="17"/>
+      <c r="E7" s="17"/>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="19">
         <v>4</v>
       </c>
       <c r="B8" s="20" t="s">
-        <v>5</v>
-      </c>
-      <c r="C8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="D8" s="17" t="s">
-        <v>53</v>
-      </c>
-      <c r="E8" s="17" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.35">
+        <v>8</v>
+      </c>
+      <c r="C8" s="17"/>
+      <c r="D8" s="17"/>
+      <c r="E8" s="17"/>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="19">
         <v>5</v>
       </c>
       <c r="B9" s="20" t="s">
-        <v>6</v>
-      </c>
-      <c r="C9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="D9" s="17" t="s">
-        <v>54</v>
-      </c>
-      <c r="E9" s="17" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.35">
+        <v>9</v>
+      </c>
+      <c r="C9" s="17"/>
+      <c r="D9" s="17"/>
+      <c r="E9" s="17"/>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A10" s="19">
         <v>6</v>
       </c>
       <c r="B10" s="20" t="s">
-        <v>7</v>
-      </c>
-      <c r="C10" s="17">
-        <v>2950</v>
-      </c>
-      <c r="D10" s="17">
-        <v>147</v>
-      </c>
-      <c r="E10" s="17">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.35">
+        <v>10</v>
+      </c>
+      <c r="C10" s="17"/>
+      <c r="D10" s="17"/>
+      <c r="E10" s="17"/>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A11" s="19">
         <v>7</v>
       </c>
       <c r="B11" s="20" t="s">
-        <v>8</v>
-      </c>
-      <c r="C11" s="17">
-        <v>2714</v>
-      </c>
-      <c r="D11" s="17">
-        <v>133</v>
-      </c>
-      <c r="E11" s="17">
-        <v>60</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.35">
+        <v>11</v>
+      </c>
+      <c r="C11" s="17"/>
+      <c r="D11" s="17"/>
+      <c r="E11" s="17"/>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A12" s="19">
         <v>8</v>
       </c>
       <c r="B12" s="20" t="s">
-        <v>9</v>
-      </c>
-      <c r="C12" s="17">
-        <v>2350</v>
-      </c>
-      <c r="D12" s="17">
-        <v>130</v>
-      </c>
-      <c r="E12" s="17">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" ht="29" x14ac:dyDescent="0.35">
+        <v>12</v>
+      </c>
+      <c r="C12" s="17"/>
+      <c r="D12" s="17"/>
+      <c r="E12" s="17"/>
+    </row>
+    <row r="13" spans="1:5" ht="30" x14ac:dyDescent="0.25">
       <c r="A13" s="19">
         <v>9</v>
       </c>
       <c r="B13" s="20" t="s">
-        <v>10</v>
-      </c>
-      <c r="C13" s="17" t="s">
-        <v>47</v>
-      </c>
-      <c r="D13" s="17" t="s">
-        <v>48</v>
-      </c>
-      <c r="E13" s="17" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" ht="29.5" thickBot="1" x14ac:dyDescent="0.4">
+        <v>13</v>
+      </c>
+      <c r="C13" s="17"/>
+      <c r="D13" s="17"/>
+      <c r="E13" s="17"/>
+    </row>
+    <row r="14" spans="1:5" ht="30.75" thickBot="1" x14ac:dyDescent="0.3">
       <c r="A14" s="19">
         <v>10</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>11</v>
-      </c>
-      <c r="C14" s="17" t="s">
-        <v>50</v>
-      </c>
-      <c r="D14" s="17" t="s">
-        <v>51</v>
-      </c>
-      <c r="E14" s="17" t="s">
-        <v>52</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+      <c r="E14" s="17"/>
     </row>
   </sheetData>
   <mergeCells count="2">
@@ -1606,7 +1467,7 @@
     <mergeCell ref="A3:E3"/>
   </mergeCells>
   <conditionalFormatting sqref="B5">
-    <cfRule type="colorScale" priority="4">
+    <cfRule type="colorScale" priority="3">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
@@ -1614,7 +1475,7 @@
         <color rgb="FF63BE7B"/>
       </colorScale>
     </cfRule>
-    <cfRule type="colorScale" priority="5">
+    <cfRule type="colorScale" priority="4">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1626,7 +1487,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:E14">
-    <cfRule type="colorScale" priority="3">
+    <cfRule type="colorScale" priority="2">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="percentile" val="50"/>
@@ -1638,7 +1499,7 @@
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="A5:A14">
-    <cfRule type="colorScale" priority="2">
+    <cfRule type="colorScale" priority="1">
       <colorScale>
         <cfvo type="min"/>
         <cfvo type="max"/>
